--- a/biology/Zoologie/Apôtre_gris/Apôtre_gris.xlsx
+++ b/biology/Zoologie/Apôtre_gris/Apôtre_gris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ap%C3%B4tre_gris</t>
+          <t>Apôtre_gris</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Struthidea cinerea
 L'Apôtre gris (Struthidea cinerea) est une espèce d'oiseau, gris ou noir, au vol rapide, d'environ 30 cm de long. Il est originaire d'Australie où il vit dans les bois, se nourrissant d'insectes et de graines. Ils volent en petits groupes de 6 à 20 individus mais la croyance populaire les voit en bandes de 12, comme les apôtres du Christ, d'où leur nom.
